--- a/examples/excels/base_test.xlsx
+++ b/examples/excels/base_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\program2019\gomodproject\table-export\examples\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\go\table-export\examples\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ABA9C1-49DA-4222-89F8-000D3A4A0C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E319760-E9F6-4988-9615-29CA6329BC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6984" yWindow="3720" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,26 @@
   </si>
   <si>
     <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_3_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +439,11 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -430,8 +453,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -441,8 +467,11 @@
       <c r="C6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -452,8 +481,11 @@
       <c r="C7">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -463,8 +495,11 @@
       <c r="C8">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -474,8 +509,11 @@
       <c r="C9">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -485,8 +523,11 @@
       <c r="C10">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -496,8 +537,11 @@
       <c r="C11">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -507,8 +551,11 @@
       <c r="C12">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>101</v>
       </c>
@@ -517,6 +564,9 @@
       </c>
       <c r="C13">
         <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/examples/excels/base_test.xlsx
+++ b/examples/excels/base_test.xlsx
@@ -1,133 +1,473 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\go\table-export\examples\excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E319760-E9F6-4988-9615-29CA6329BC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6984" yWindow="3720" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>big_data_id</t>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>condition_type</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>学科id</t>
+  </si>
+  <si>
+    <t>对应big_data中的id</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>条件类型</t>
   </si>
   <si>
     <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_3</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
   <si>
     <t>张四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
   </si>
   <si>
     <t>李三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_5</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
   <si>
     <t>王四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赵三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
   </si>
   <si>
     <t>赵四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1_2_3_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>course</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学科id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -135,24 +475,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -201,7 +828,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -236,7 +863,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -410,26 +1037,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="15.7767857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.4196428571429" customWidth="1"/>
+    <col min="7" max="7" width="14.8839285714286" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,141 +1064,207 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/excels/base_test.xlsx
+++ b/examples/excels/base_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -37,6 +37,9 @@
     <t>condition_type</t>
   </si>
   <si>
+    <t>position</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -64,12 +67,18 @@
     <t>=</t>
   </si>
   <si>
+    <t>1_2</t>
+  </si>
+  <si>
     <t>张四</t>
   </si>
   <si>
     <t>&gt;=</t>
   </si>
   <si>
+    <t>45_06</t>
+  </si>
+  <si>
     <t>李三</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>&lt;=</t>
   </si>
   <si>
+    <t>3_20</t>
+  </si>
+  <si>
     <t>王四</t>
   </si>
   <si>
@@ -92,6 +104,9 @@
   </si>
   <si>
     <t>&gt;</t>
+  </si>
+  <si>
+    <t>44_67</t>
   </si>
   <si>
     <t>赵四</t>
@@ -108,12 +123,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,7 +138,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,38 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,92 +273,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,13 +290,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +422,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,151 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,8 +487,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +509,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,30 +543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -546,15 +554,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,151 +572,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,20 +1051,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="15.7767857142857" customWidth="1"/>
     <col min="6" max="6" width="10.4196428571429" customWidth="1"/>
     <col min="7" max="7" width="14.8839285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,6 +1085,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1084,56 +1095,59 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1142,7 +1156,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1150,13 +1167,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1167,13 +1184,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1182,18 +1199,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -1202,7 +1219,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1210,28 +1230,26 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
+      <c r="D12"/>
       <c r="E12">
         <v>9</v>
       </c>
@@ -1239,7 +1257,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1247,19 +1268,19 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/examples/excels/base_test.xlsx
+++ b/examples/excels/base_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>position</t>
   </si>
   <si>
+    <t>rewards</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -58,6 +61,12 @@
     <t>条件类型</t>
   </si>
   <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
     <t>1_2</t>
   </si>
   <si>
+    <t>1=12|2=31</t>
+  </si>
+  <si>
     <t>张四</t>
   </si>
   <si>
@@ -79,12 +91,18 @@
     <t>45_06</t>
   </si>
   <si>
+    <t>2=53|1=26|7=72</t>
+  </si>
+  <si>
     <t>李三</t>
   </si>
   <si>
     <t>李四</t>
   </si>
   <si>
+    <t>2=41</t>
+  </si>
+  <si>
     <t>王三</t>
   </si>
   <si>
@@ -107,6 +125,9 @@
   </si>
   <si>
     <t>44_67</t>
+  </si>
+  <si>
+    <t>5=123|1=46|7=12</t>
   </si>
   <si>
     <t>赵四</t>
@@ -123,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -151,6 +172,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -168,9 +197,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,7 +226,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,51 +256,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -265,17 +271,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,19 +317,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,151 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,17 +518,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -558,6 +568,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -577,152 +598,152 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1051,20 +1072,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="5" max="5" width="15.7767857142857" customWidth="1"/>
     <col min="6" max="6" width="10.4196428571429" customWidth="1"/>
     <col min="7" max="7" width="14.8839285714286" customWidth="1"/>
+    <col min="9" max="9" width="15.3214285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,65 +1111,77 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1156,10 +1190,13 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1167,36 +1204,39 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
         <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1204,13 +1244,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -1219,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1230,26 +1270,25 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>23</v>
       </c>
-      <c r="D12"/>
       <c r="E12">
         <v>9</v>
       </c>
@@ -1257,10 +1296,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1268,19 +1310,19 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/examples/excels/base_test.xlsx
+++ b/examples/excels/base_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>rewards</t>
   </si>
   <si>
+    <t>vector3</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>2=53|1=26|7=72</t>
   </si>
   <si>
+    <t>2.3_35_2</t>
+  </si>
+  <si>
     <t>李三</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
   </si>
   <si>
     <t>王四</t>
+  </si>
+  <si>
+    <t>0_0_1</t>
   </si>
   <si>
     <t>赵三</t>
@@ -144,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,14 +168,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,123 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,16 +517,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -538,21 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,17 +575,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,155 +598,164 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1086,7 +1095,7 @@
     <col min="9" max="9" width="15.3214285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,6 +1122,9 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1120,68 +1132,71 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1190,13 +1205,16 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1204,13 +1222,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1221,13 +1239,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1236,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1244,13 +1262,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -1259,24 +1277,27 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1284,7 +1305,7 @@
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>23</v>
@@ -1296,33 +1317,36 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
